--- a/biology/Médecine/Lesley_Akyaa_Opoku_Ware/Lesley_Akyaa_Opoku_Ware.xlsx
+++ b/biology/Médecine/Lesley_Akyaa_Opoku_Ware/Lesley_Akyaa_Opoku_Ware.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lesley Akyaa Opoku Ware est une médecin et diplomate ghanéenne. Depuis 2017, elle est l'ambassadrice du Ghana auprès de la fédération de Russie[1], mais aussi de l'Arménie, l'Azerbaïdjan, le Belarus, le Kazakhstan et la Moldavie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lesley Akyaa Opoku Ware est une médecin et diplomate ghanéenne. Depuis 2017, elle est l'ambassadrice du Ghana auprès de la fédération de Russie, mais aussi de l'Arménie, l'Azerbaïdjan, le Belarus, le Kazakhstan et la Moldavie.
 </t>
         </is>
       </c>
